--- a/data/long_dif/P18_2-Urba-long_dif.xlsx
+++ b/data/long_dif/P18_2-Urba-long_dif.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -627,52 +675,82 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>26,31%</t>
+          <t>26,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>27,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>27,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,75%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>14,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>16,1%</t>
+          <t>35,18%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,74%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>27,54%</t>
+          <t>24,99%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>23,53%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15,91%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>30,84%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>27,64%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>26,39%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>24,52%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>13,35; 21,11</t>
+          <t>13,76; 21,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,2; 31,3</t>
+          <t>21,41; 32,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,38; 31,76</t>
+          <t>23,2; 32,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,08; 18,35</t>
+          <t>21,38; 40,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,12; 39,09</t>
+          <t>20,29; 32,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>24,09; 31,65</t>
+          <t>11,67; 17,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,57; 18,8</t>
+          <t>31,43; 39,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,68; 34,4</t>
+          <t>23,96; 31,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,6; 30,49</t>
+          <t>20,42; 29,39</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>19,3; 28,37</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>13,65; 18,61</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>27,97; 34,37</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>24,89; 30,58</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>22,61; 32,66</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>21,16; 28,57</t>
         </is>
       </c>
     </row>
@@ -733,52 +841,82 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>42,72%</t>
+          <t>42,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>51,95%</t>
+          <t>52,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>50,13%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,47%</t>
+          <t>46,49%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>46,34%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>40,97%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45,31%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>48,54%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>46,58%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>48,15%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>41,5%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>48,56%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>49,3%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
           <t>46,54%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>48,8%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>41,55%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>49,11%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>49,44%</t>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>47,26%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>37,18; 48,69</t>
+          <t>36,59; 47,5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,03; 57,39</t>
+          <t>45,78; 57,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>45,12; 55,7</t>
+          <t>44,66; 55,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,91; 44,61</t>
+          <t>37,82; 52,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>41,92; 51,5</t>
+          <t>39,99; 52,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>44,91; 53,2</t>
+          <t>37,17; 45,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,2; 45,04</t>
+          <t>40,96; 49,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,49; 53,06</t>
+          <t>44,36; 52,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>46,07; 53,18</t>
+          <t>41,53; 52,01</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>42,88; 53,63</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>38,0; 44,8</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>44,21; 51,82</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>45,79; 52,41</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>42,07; 50,89</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>43,13; 51,35</t>
         </is>
       </c>
     </row>
@@ -839,52 +1007,82 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>40,06%</t>
+          <t>40,77%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,73%</t>
+          <t>22,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>44,46%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>44,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>19,51%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>23,66%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23,02%</t>
+          <t>28,43%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>28,32%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>42,58%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20,59%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>23,07%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>27,07%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>28,22%</t>
         </is>
       </c>
     </row>
@@ -897,104 +1095,160 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>35,05; 45,39</t>
+          <t>35,68; 46,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,99; 29,4</t>
+          <t>17,08; 29,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>18,82; 27,59</t>
+          <t>18,29; 27,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>40,09; 48,97</t>
+          <t>19,75; 30,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,14; 22,05</t>
+          <t>23,14; 34,61</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,94; 26,82</t>
+          <t>39,97; 48,27</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>38,69; 46,0</t>
+          <t>16,06; 23,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>17,48; 24,18</t>
+          <t>20,0; 26,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,25; 25,84</t>
+          <t>23,84; 33,99</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>23,91; 33,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>39,17; 46,16</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>17,81; 24,6</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>20,79; 26,0</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>23,17; 30,47</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>24,68; 32,0</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,35%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>23,29%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>34,06%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,55%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1007,100 +1261,164 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,08; 26,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>29,25; 42,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>22,93; 33,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,1; 22,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,75; 37,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>19,43; 27,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,24; 22,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>30,39; 38,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,53; 28,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>38,99%</t>
+          <t>19,12%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>45,87%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>48,4%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>42,38%</t>
+          <t>24,79%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>45,56%</t>
+          <t>20,4%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>48,01%</t>
+          <t>18,28%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>40,7%</t>
+          <t>32,95%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>45,72%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>48,2%</t>
+          <t>25,14%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>30,58%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18,7%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>34,08%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>25,38%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>24,96%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>25,21%</t>
         </is>
       </c>
     </row>
@@ -1113,47 +1431,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,46; 45,18</t>
+          <t>14,74; 26,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>39,88; 54,13</t>
+          <t>29,17; 41,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>42,6; 53,77</t>
+          <t>22,47; 32,04</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>37,11; 48,1</t>
+          <t>18,97; 32,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>40,1; 51,01</t>
+          <t>12,92; 28,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>43,08; 52,59</t>
+          <t>14,35; 23,28</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,82; 45,11</t>
+          <t>28,19; 38,16</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>41,4; 50,32</t>
+          <t>19,4; 28,18</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>44,37; 51,97</t>
+          <t>20,45; 30,0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>21,98; 41,32</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>15,75; 22,82</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>30,39; 37,73</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>22,47; 28,92</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>21,31; 29,38</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>19,26; 31,97</t>
         </is>
       </c>
     </row>
@@ -1161,52 +1509,82 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>39,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,66%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>49,23%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>39,53%</t>
+          <t>51,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>21,75%</t>
+          <t>42,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>42,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>41,08%</t>
+          <t>45,29%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>20,22%</t>
+          <t>48,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>26,25%</t>
+          <t>49,99%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>33,14%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>41,33%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>45,56%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>48,67%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>50,58%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>37,99%</t>
         </is>
       </c>
     </row>
@@ -1219,104 +1597,160 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>36,75; 50,34</t>
+          <t>34,33; 45,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>14,36; 23,65</t>
+          <t>39,86; 52,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,39; 29,59</t>
+          <t>43,46; 54,57</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>35,0; 45,28</t>
+          <t>44,17; 57,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,28; 27,05</t>
+          <t>29,65; 51,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>24,76; 33,2</t>
+          <t>37,77; 47,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>36,7; 45,34</t>
+          <t>40,28; 51,03</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,2; 23,99</t>
+          <t>43,22; 52,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,42; 29,84</t>
+          <t>44,47; 55,94</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>24,56; 43,31</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>37,73; 45,13</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>41,37; 49,58</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>45,13; 52,39</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>45,27; 54,89</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>30,31; 45,18</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,34%</t>
+          <t>41,1%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>18,93%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>32,75%</t>
+          <t>23,23%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>38,14%</t>
+          <t>37,26%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>21,76%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>35,45%</t>
+          <t>28,65%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>24,87%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>36,28%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>39,97%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>20,36%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>25,95%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>24,45%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>36,8%</t>
         </is>
       </c>
     </row>
@@ -1329,47 +1763,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>9,8; 25,21</t>
+          <t>35,17; 46,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>22,72; 44,59</t>
+          <t>14,44; 23,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,91; 44,22</t>
+          <t>18,84; 28,15</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,44; 26,44</t>
+          <t>18,83; 29,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>28,65; 48,37</t>
+          <t>26,45; 55,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,95; 30,44</t>
+          <t>34,13; 43,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,75; 24,11</t>
+          <t>17,34; 27,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>27,9; 43,6</t>
+          <t>24,87; 33,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,39; 35,48</t>
+          <t>20,51; 30,28</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>26,77; 47,58</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>36,31; 43,72</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>17,41; 24,26</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>22,9; 29,01</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>20,87; 28,26</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>29,05; 47,92</t>
         </is>
       </c>
     </row>
@@ -1377,52 +1841,82 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>43,56%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>39,13%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>45,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>50,43%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>37,79%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>44,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1435,100 +1929,164 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>29,3; 53,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>31,51; 56,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,88; 48,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>25,3; 44,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>34,9; 56,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>41,83; 59,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,68; 45,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>36,22; 53,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37,16; 51,8</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>42,26%</t>
+          <t>17,12%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>23,65%</t>
+          <t>31,71%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>32,1%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>46,82%</t>
+          <t>44,97%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>18,78%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>44,61%</t>
+          <t>39,13%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>20,19%</t>
+          <t>21,31%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>28,11%</t>
+          <t>19,05%</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>35,41%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>26,73%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>32,07%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1541,104 +2099,160 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>31,32; 57,62</t>
+          <t>10,04; 26,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>14,53; 36,83</t>
+          <t>20,97; 42,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,96; 36,57</t>
+          <t>22,59; 45,03</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>37,73; 57,33</t>
+          <t>29,96; 64,31</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>9,99; 25,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>20,2; 35,77</t>
+          <t>12,36; 27,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>36,7; 54,04</t>
+          <t>29,65; 48,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,45; 27,39</t>
+          <t>14,93; 29,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,66; 34,29</t>
+          <t>12,23; 27,57</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>12,95; 23,46</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>27,96; 43,01</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>20,68; 34,53</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>23,54; 45,89</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>17,58%</t>
+          <t>37,75%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>30,73%</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>38,41%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>33,89%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>34,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>25,42%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>17,11%</t>
+          <t>43,93%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>50,84%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>53,13%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>35,8%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>44,67%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>44,6%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>43,47%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1651,47 +2265,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>14,98; 21,48</t>
+          <t>25,87; 49,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>26,93; 34,62</t>
+          <t>34,27; 60,51</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>25,27; 31,49</t>
+          <t>28,77; 48,88</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>14,46; 19,46</t>
+          <t>19,89; 47,51</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>31,53; 37,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>22,84; 27,91</t>
+          <t>25,41; 43,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>15,17; 19,11</t>
+          <t>33,78; 53,3</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>30,27; 35,14</t>
+          <t>42,49; 59,99</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>24,53; 28,8</t>
+          <t>42,22; 64,53</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>28,83; 43,09</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>37,14; 53,68</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>37,46; 51,39</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>33,05; 52,76</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1699,52 +2343,82 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>41,06%</t>
+          <t>45,13%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>48,52%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>48,12%</t>
+          <t>29,49%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>40,53%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>46,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>48,68%</t>
+          <t>47,35%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>47,23%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>27,82%</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>46,25%</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>19,93%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>28,67%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>24,46%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1757,47 +2431,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>36,51; 44,67</t>
+          <t>33,73; 60,75</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>44,53; 52,75</t>
+          <t>14,17; 33,74</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>44,23; 51,63</t>
+          <t>20,64; 38,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>37,42; 43,75</t>
+          <t>10,29; 32,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>42,8; 49,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>45,91; 51,79</t>
+          <t>38,04; 56,91</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>38,5; 43,38</t>
+          <t>10,42; 25,49</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>44,59; 50,2</t>
+          <t>19,83; 35,62</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>46,12; 50,7</t>
+          <t>18,83; 39,21</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>38,29; 54,82</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>14,03; 26,84</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>22,58; 35,73</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>16,83; 33,2</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1805,52 +2509,82 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>41,37%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>23,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>42,8%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>19,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>25,9%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>42,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>20,18%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,87%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1863,60 +2597,765 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>37,39; 46,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>20,99; 27,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>39,5; 46,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>17,14; 22,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,61; 28,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>39,46; 44,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>18,3; 22,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>23,02; 26,89</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Menos diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>17,94%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>30,38%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>28,05%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>28,71%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>24,31%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>16,6%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>34,77%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>25,32%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>25,03%</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>32,64%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>26,65%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>26,49%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>24,67%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>15,16; 21,27</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>26,86; 34,2</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>24,87; 31,3</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>24,03; 36,44</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>19,92; 29,75</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>14,33; 19,23</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>31,86; 37,95</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>22,88; 27,94</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>21,5; 27,63</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>21,53; 29,9</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>15,35; 19,38</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>30,52; 35,21</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>24,64; 28,72</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>23,84; 30,06</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>22,05; 28,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>40,65%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>48,84%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>48,36%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>46,86%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>45,39%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>40,9%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>45,15%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>48,64%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>48,63%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>44,95%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>40,78%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>46,94%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>48,5%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>47,77%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>45,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>37,04; 44,29</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>44,75; 52,77</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>45,05; 52,17</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>41,87; 51,92</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>39,46; 50,7</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>37,84; 44,11</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>41,96; 48,39</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>45,7; 51,38</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>44,82; 52,34</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>40,42; 49,64</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>38,48; 43,3</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>44,38; 49,56</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>46,12; 50,79</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>44,56; 50,87</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>41,32; 48,65</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Más Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>41,41%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>20,78%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>23,59%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>24,43%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>30,3%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>42,5%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>27,0%</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>30,01%</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>41,97%</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>20,42%</t>
+        </is>
+      </c>
+      <c r="O32" s="2" t="inlineStr">
+        <is>
+          <t>24,84%</t>
+        </is>
+      </c>
+      <c r="P32" s="2" t="inlineStr">
+        <is>
+          <t>25,74%</t>
+        </is>
+      </c>
+      <c r="Q32" s="2" t="inlineStr">
+        <is>
+          <t>30,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>37,61; 45,55</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>18,03; 25,56</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>20,88; 26,96</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>20,58; 28,47</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>25,25; 37,03</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>39,3; 45,53</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>17,29; 23,2</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>23,44; 28,55</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>23,94; 30,91</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>26,07; 34,41</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>39,64; 44,64</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>18,29; 22,81</t>
+        </is>
+      </c>
+      <c r="O33" s="2" t="inlineStr">
+        <is>
+          <t>22,98; 26,74</t>
+        </is>
+      </c>
+      <c r="P33" s="2" t="inlineStr">
+        <is>
+          <t>23,18; 28,17</t>
+        </is>
+      </c>
+      <c r="Q33" s="2" t="inlineStr">
+        <is>
+          <t>26,75; 34,02</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="Q34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_dif/P18_2-Urba-long_dif.xlsx
+++ b/data/long_dif/P18_2-Urba-long_dif.xlsx
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C4" s="5" t="n">
@@ -839,7 +839,7 @@
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C7" s="5" t="n">
@@ -998,7 +998,7 @@
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C10" s="5" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C13" s="5" t="n">
@@ -1320,7 +1320,7 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C16" s="5" t="n">
@@ -1479,7 +1479,7 @@
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C19" s="5" t="n">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C22" s="5" t="n">
@@ -1783,7 +1783,7 @@
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C25" s="5" t="n">
@@ -1924,7 +1924,7 @@
       <c r="A28" s="1" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C28" s="5" t="n">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Menos diferencia negativa</t>
+          <t>Menos</t>
         </is>
       </c>
       <c r="C31" s="5" t="n">
@@ -2228,7 +2228,7 @@
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Igual diferencia Cero</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="C34" s="5" t="n">
@@ -2387,7 +2387,7 @@
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>Más Diferencia Positiva</t>
+          <t>Más</t>
         </is>
       </c>
       <c r="C37" s="5" t="n">
